--- a/Datasets/sleep.xlsx
+++ b/Datasets/sleep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hectorbahamonde/Teaching/MLE/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127DBD15-E280-7840-AE1E-E4CBC2E767F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C564B47B-A152-9941-8271-D39ACA3B22A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2580" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -1282,7 +1282,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1638,9 +1640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K133"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1692,28 +1696,28 @@
       <c r="C2" s="1">
         <v>5712000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1727,28 +1731,28 @@
       <c r="C3" s="1">
         <v>6600</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1762,28 +1766,28 @@
       <c r="C4" s="1">
         <v>44500</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1791,34 +1795,34 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>5700</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1832,28 +1836,28 @@
       <c r="C6" s="1">
         <v>4603000</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1867,28 +1871,28 @@
       <c r="C7" s="1">
         <v>179500</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>4</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1896,34 +1900,34 @@
       <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1937,28 +1941,28 @@
       <c r="C9" s="1">
         <v>169000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1972,28 +1976,28 @@
       <c r="C10" s="1">
         <v>25600</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2007,28 +2011,28 @@
       <c r="C11" s="1">
         <v>440000</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2036,34 +2040,34 @@
       <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="1">
         <v>6400</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>4</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2077,28 +2081,28 @@
       <c r="C13" s="1">
         <v>423000</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>5</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2106,34 +2110,34 @@
       <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="1">
         <v>2400</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2147,28 +2151,28 @@
       <c r="C15" s="1">
         <v>419000</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>5</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2176,34 +2180,34 @@
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="1">
         <v>1200</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2217,28 +2221,28 @@
       <c r="C17" s="1">
         <v>25000</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2246,34 +2250,34 @@
       <c r="A18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18" s="1">
         <v>3500</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>2</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>2</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2281,34 +2285,34 @@
       <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="1">
         <v>5000</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>2</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2322,28 +2326,28 @@
       <c r="C20" s="1">
         <v>17500</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2357,28 +2361,28 @@
       <c r="C21" s="1">
         <v>81000</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2392,28 +2396,28 @@
       <c r="C22" s="1">
         <v>680000</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>5</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>5</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2427,28 +2431,28 @@
       <c r="C23" s="1">
         <v>115000</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2456,34 +2460,34 @@
       <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="1">
         <v>1000</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2497,28 +2501,28 @@
       <c r="C25" s="1">
         <v>406000</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
         <v>4</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2532,28 +2536,28 @@
       <c r="C26" s="1">
         <v>325000</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
         <v>3</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2567,28 +2571,28 @@
       <c r="C27" s="1">
         <v>119500</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2596,34 +2600,34 @@
       <c r="A28" t="s">
         <v>135</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C28" s="1">
         <v>4000</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>5</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2637,28 +2641,28 @@
       <c r="C29" s="1">
         <v>5500</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>5</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>3</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2672,28 +2676,28 @@
       <c r="C30" s="1">
         <v>655000</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>5</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>5</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>5</v>
       </c>
     </row>
@@ -2707,28 +2711,28 @@
       <c r="C31" s="1">
         <v>157000</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2742,28 +2746,28 @@
       <c r="C32" s="1">
         <v>56000</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="1">
         <v>5</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2771,34 +2775,34 @@
       <c r="A33" t="s">
         <v>155</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>5</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>4</v>
       </c>
     </row>
@@ -2806,34 +2810,34 @@
       <c r="A34" t="s">
         <v>161</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2847,28 +2851,28 @@
       <c r="C35" s="1">
         <v>1320000</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2876,34 +2880,34 @@
       <c r="A36" t="s">
         <v>171</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C36" s="1">
         <v>3000</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>2</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2917,28 +2921,28 @@
       <c r="C37" s="1">
         <v>8100</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>3</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2946,34 +2950,34 @@
       <c r="A38" t="s">
         <v>179</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>4</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2981,34 +2985,34 @@
       <c r="A39" t="s">
         <v>183</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>4</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
+      <c r="J39" s="1">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3022,28 +3026,28 @@
       <c r="C40" s="1">
         <v>6300</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>2</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3057,28 +3061,28 @@
       <c r="C41" s="1">
         <v>10800</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3092,28 +3096,28 @@
       <c r="C42" s="1">
         <v>490000</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>5</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="1">
         <v>5</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3121,34 +3125,34 @@
       <c r="A43" t="s">
         <v>198</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C43" s="1">
         <v>15500</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>2</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="1">
         <v>2</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3162,28 +3166,28 @@
       <c r="C44" s="1">
         <v>115000</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>4</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="1">
         <v>4</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3197,28 +3201,28 @@
       <c r="C45" s="1">
         <v>11400</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>2</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
+      <c r="J45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3232,28 +3236,28 @@
       <c r="C46" s="1">
         <v>180000</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>4</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="1">
         <v>4</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3267,28 +3271,28 @@
       <c r="C47" s="1">
         <v>12100</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>5</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="1">
         <v>5</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3302,28 +3306,28 @@
       <c r="C48" s="1">
         <v>39200</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>2</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="1">
         <v>2</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3331,34 +3335,34 @@
       <c r="A49" t="s">
         <v>217</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C49" s="1">
         <v>1900</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>3</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
+      <c r="J49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3372,28 +3376,28 @@
       <c r="C50" s="1">
         <v>50400</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3407,28 +3411,28 @@
       <c r="C51" s="1">
         <v>179000</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>2</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="1">
         <v>3</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3436,34 +3440,34 @@
       <c r="A52" t="s">
         <v>226</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C52" s="1">
         <v>12300</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>2</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="1">
         <v>2</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3477,28 +3481,28 @@
       <c r="C53" s="1">
         <v>21000</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>3</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="1">
         <v>2</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3512,28 +3516,28 @@
       <c r="C54" s="1">
         <v>98200</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>5</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="1">
         <v>5</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3547,28 +3551,28 @@
       <c r="C55" s="1">
         <v>175000</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>5</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="1">
         <v>5</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3582,28 +3586,28 @@
       <c r="C56" s="1">
         <v>12500</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>2</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="1">
         <v>2</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3611,34 +3615,34 @@
       <c r="A57" t="s">
         <v>241</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C57" s="1">
         <v>1000</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>3</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
+      <c r="J57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3646,34 +3650,34 @@
       <c r="A58" t="s">
         <v>245</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>246</v>
       </c>
       <c r="C58" s="1">
         <v>2600</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>2</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3687,28 +3691,28 @@
       <c r="C59" s="1">
         <v>12300</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>3</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
+      <c r="J59" s="1">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3716,34 +3720,34 @@
       <c r="A60" t="s">
         <v>251</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>252</v>
       </c>
       <c r="C60" s="1">
         <v>2500</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>3</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="1">
         <v>2</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="1">
         <v>2</v>
       </c>
     </row>
@@ -3757,28 +3761,28 @@
       <c r="C61" s="1">
         <v>58000</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>4</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="1">
         <v>3</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="1">
         <v>4</v>
       </c>
     </row>
@@ -3792,28 +3796,28 @@
       <c r="C62" s="1">
         <v>3900</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>2</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
+      <c r="J62" s="1">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3827,30 +3831,870 @@
       <c r="C63" s="1">
         <v>17000</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>3</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
+      <c r="J63" s="1">
+        <v>1</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
